--- a/Code/Results/Cases/Case_4_99/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_99/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.051662418989283</v>
+        <v>1.104787407992471</v>
       </c>
       <c r="D2">
-        <v>1.06164666331752</v>
+        <v>1.097397575286285</v>
       </c>
       <c r="E2">
-        <v>1.068459110788655</v>
+        <v>1.115642162878807</v>
       </c>
       <c r="F2">
-        <v>1.073246955113448</v>
+        <v>1.116247020282871</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.070310436965703</v>
+        <v>1.065597497592041</v>
       </c>
       <c r="J2">
-        <v>1.072400551888403</v>
+        <v>1.109549191486713</v>
       </c>
       <c r="K2">
-        <v>1.072309118079385</v>
+        <v>1.100027417661076</v>
       </c>
       <c r="L2">
-        <v>1.079040497889715</v>
+        <v>1.11822670241576</v>
       </c>
       <c r="M2">
-        <v>1.083772129043553</v>
+        <v>1.118830085185469</v>
       </c>
       <c r="N2">
-        <v>1.073923483678147</v>
+        <v>1.111124878605696</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.062753299325156</v>
+        <v>1.106788846496812</v>
       </c>
       <c r="D3">
-        <v>1.07055601562565</v>
+        <v>1.098977415667224</v>
       </c>
       <c r="E3">
-        <v>1.07887544385121</v>
+        <v>1.117556641507543</v>
       </c>
       <c r="F3">
-        <v>1.083163178596341</v>
+        <v>1.118053299041216</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.074626143875451</v>
+        <v>1.066221899488423</v>
       </c>
       <c r="J3">
-        <v>1.081668068200639</v>
+        <v>1.111216232618573</v>
       </c>
       <c r="K3">
-        <v>1.080359215679431</v>
+        <v>1.101426860832831</v>
       </c>
       <c r="L3">
-        <v>1.088589576926043</v>
+        <v>1.119963335752586</v>
       </c>
       <c r="M3">
-        <v>1.092832060835315</v>
+        <v>1.120458871351878</v>
       </c>
       <c r="N3">
-        <v>1.083204160926545</v>
+        <v>1.112794287127175</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.069629613689618</v>
+        <v>1.10807913132044</v>
       </c>
       <c r="D4">
-        <v>1.076077124137463</v>
+        <v>1.099994988149107</v>
       </c>
       <c r="E4">
-        <v>1.085337959679514</v>
+        <v>1.118790961459637</v>
       </c>
       <c r="F4">
-        <v>1.089314342514352</v>
+        <v>1.11921759704334</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.077283049907247</v>
+        <v>1.066622195055447</v>
       </c>
       <c r="J4">
-        <v>1.087405605920932</v>
+        <v>1.112289834320856</v>
       </c>
       <c r="K4">
-        <v>1.085336528802997</v>
+        <v>1.102327206304959</v>
       </c>
       <c r="L4">
-        <v>1.09450499420509</v>
+        <v>1.121082136000439</v>
       </c>
       <c r="M4">
-        <v>1.098442300180765</v>
+        <v>1.121507857048806</v>
       </c>
       <c r="N4">
-        <v>1.088949846608506</v>
+        <v>1.113869413467019</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.072454247403588</v>
+        <v>1.108620447811198</v>
       </c>
       <c r="D5">
-        <v>1.078344297428665</v>
+        <v>1.100421672574504</v>
       </c>
       <c r="E5">
-        <v>1.087993566856739</v>
+        <v>1.119308821231391</v>
       </c>
       <c r="F5">
-        <v>1.091841720438886</v>
+        <v>1.119706016018488</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.078369873159253</v>
+        <v>1.066789594684114</v>
       </c>
       <c r="J5">
-        <v>1.089760402980259</v>
+        <v>1.112739980535885</v>
       </c>
       <c r="K5">
-        <v>1.087377729277309</v>
+        <v>1.102704488330175</v>
       </c>
       <c r="L5">
-        <v>1.096933636303691</v>
+        <v>1.121551324249647</v>
       </c>
       <c r="M5">
-        <v>1.100745113251683</v>
+        <v>1.121947686833039</v>
       </c>
       <c r="N5">
-        <v>1.091307987749756</v>
+        <v>1.114320198941306</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.072924788261669</v>
+        <v>1.108711272320189</v>
       </c>
       <c r="D6">
-        <v>1.078721924814489</v>
+        <v>1.100493250652425</v>
       </c>
       <c r="E6">
-        <v>1.088436003616717</v>
+        <v>1.119395711358725</v>
       </c>
       <c r="F6">
-        <v>1.092262775902677</v>
+        <v>1.119787962659183</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.078550650598106</v>
+        <v>1.066817650212779</v>
       </c>
       <c r="J6">
-        <v>1.09015255371429</v>
+        <v>1.11281549255571</v>
       </c>
       <c r="K6">
-        <v>1.087717562001604</v>
+        <v>1.102767764453625</v>
       </c>
       <c r="L6">
-        <v>1.09733813367241</v>
+        <v>1.121630035901407</v>
       </c>
       <c r="M6">
-        <v>1.101128621531856</v>
+        <v>1.122021468540707</v>
       </c>
       <c r="N6">
-        <v>1.091700695382811</v>
+        <v>1.11439581819686</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.069667609575091</v>
+        <v>1.108086368781944</v>
       </c>
       <c r="D7">
-        <v>1.076107624511514</v>
+        <v>1.100000693834803</v>
       </c>
       <c r="E7">
-        <v>1.085373678239651</v>
+        <v>1.118797885215163</v>
       </c>
       <c r="F7">
-        <v>1.089348337535683</v>
+        <v>1.119224127425295</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.077297687654452</v>
+        <v>1.066624435320787</v>
       </c>
       <c r="J7">
-        <v>1.08743728996851</v>
+        <v>1.112295853866749</v>
       </c>
       <c r="K7">
-        <v>1.085363999696018</v>
+        <v>1.102332252346834</v>
       </c>
       <c r="L7">
-        <v>1.094537668530944</v>
+        <v>1.121088409826973</v>
       </c>
       <c r="M7">
-        <v>1.098473283777186</v>
+        <v>1.121513738620814</v>
       </c>
       <c r="N7">
-        <v>1.088981575651065</v>
+        <v>1.113875441561358</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.055476474310434</v>
+        <v>1.105464808327935</v>
       </c>
       <c r="D8">
-        <v>1.064710989844692</v>
+        <v>1.097932472752405</v>
       </c>
       <c r="E8">
-        <v>1.072040183438344</v>
+        <v>1.116290110649544</v>
       </c>
       <c r="F8">
-        <v>1.076656301990899</v>
+        <v>1.116858402549194</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.071798539079552</v>
+        <v>1.065809295992791</v>
       </c>
       <c r="J8">
-        <v>1.075589293282619</v>
+        <v>1.110113641826887</v>
       </c>
       <c r="K8">
-        <v>1.075080348316665</v>
+        <v>1.100501451572599</v>
       </c>
       <c r="L8">
-        <v>1.082325349127134</v>
+        <v>1.118814637284393</v>
       </c>
       <c r="M8">
-        <v>1.086889165812846</v>
+        <v>1.119381578133509</v>
       </c>
       <c r="N8">
-        <v>1.077116753450897</v>
+        <v>1.111690130530096</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.027867295490254</v>
+        <v>1.100807545318151</v>
       </c>
       <c r="D9">
-        <v>1.042523857259055</v>
+        <v>1.094251191842799</v>
       </c>
       <c r="E9">
-        <v>1.046142622485325</v>
+        <v>1.111835765062054</v>
       </c>
       <c r="F9">
-        <v>1.051997355357256</v>
+        <v>1.112654354184124</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060945684630766</v>
+        <v>1.064343893375747</v>
       </c>
       <c r="J9">
-        <v>1.052472961536417</v>
+        <v>1.106228384522181</v>
       </c>
       <c r="K9">
-        <v>1.054962733212231</v>
+        <v>1.097234764976508</v>
       </c>
       <c r="L9">
-        <v>1.05852893920712</v>
+        <v>1.114769304839532</v>
       </c>
       <c r="M9">
-        <v>1.064299606498069</v>
+        <v>1.115585606617925</v>
       </c>
       <c r="N9">
-        <v>1.053967593862135</v>
+        <v>1.107799355714372</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.007190363806323</v>
+        <v>1.097675736882937</v>
       </c>
       <c r="D10">
-        <v>1.025910589172851</v>
+        <v>1.091770997874666</v>
       </c>
       <c r="E10">
-        <v>1.026788032343509</v>
+        <v>1.108840974597988</v>
       </c>
       <c r="F10">
-        <v>1.033566316531068</v>
+        <v>1.109826503669876</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052716614959962</v>
+        <v>1.06334684774296</v>
       </c>
       <c r="J10">
-        <v>1.035121576267122</v>
+        <v>1.103610002076866</v>
       </c>
       <c r="K10">
-        <v>1.03982726533172</v>
+        <v>1.095028492784673</v>
       </c>
       <c r="L10">
-        <v>1.040689898053386</v>
+        <v>1.112045030914976</v>
       </c>
       <c r="M10">
-        <v>1.047354861961487</v>
+        <v>1.113027529523553</v>
       </c>
       <c r="N10">
-        <v>1.036591567635525</v>
+        <v>1.105177254865652</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9975431308311924</v>
+        <v>1.096312875548706</v>
       </c>
       <c r="D11">
-        <v>1.01816393949099</v>
+        <v>1.090690595640738</v>
       </c>
       <c r="E11">
-        <v>1.017770563202559</v>
+        <v>1.107537882543787</v>
       </c>
       <c r="F11">
-        <v>1.024979484995298</v>
+        <v>1.108595734953088</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048854611473998</v>
+        <v>1.062910211641236</v>
       </c>
       <c r="J11">
-        <v>1.027018476824426</v>
+        <v>1.102469214527894</v>
       </c>
       <c r="K11">
-        <v>1.032751251808333</v>
+        <v>1.094066128427036</v>
       </c>
       <c r="L11">
-        <v>1.032364957590269</v>
+        <v>1.110858581097167</v>
       </c>
       <c r="M11">
-        <v>1.039445214313155</v>
+        <v>1.11191305130148</v>
       </c>
       <c r="N11">
-        <v>1.028476960862182</v>
+        <v>1.104034847267511</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9938381793641307</v>
+        <v>1.095805600395432</v>
       </c>
       <c r="D12">
-        <v>1.015190007331656</v>
+        <v>1.090288290796894</v>
       </c>
       <c r="E12">
-        <v>1.014309731239512</v>
+        <v>1.107052876681035</v>
       </c>
       <c r="F12">
-        <v>1.021684073560017</v>
+        <v>1.108137600403055</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047368218811659</v>
+        <v>1.062747276362938</v>
       </c>
       <c r="J12">
-        <v>1.023905627411375</v>
+        <v>1.102044395246649</v>
       </c>
       <c r="K12">
-        <v>1.030031864408364</v>
+        <v>1.093707583335472</v>
       </c>
       <c r="L12">
-        <v>1.029167820170417</v>
+        <v>1.110416828774142</v>
       </c>
       <c r="M12">
-        <v>1.036407307367073</v>
+        <v>1.111498034986071</v>
       </c>
       <c r="N12">
-        <v>1.025359690845916</v>
+        <v>1.103609424694158</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9946387286868453</v>
+        <v>1.095914460554615</v>
       </c>
       <c r="D13">
-        <v>1.0158325433374</v>
+        <v>1.090374631990936</v>
       </c>
       <c r="E13">
-        <v>1.015057424166599</v>
+        <v>1.107156956873377</v>
       </c>
       <c r="F13">
-        <v>1.022396020068613</v>
+        <v>1.108235916255462</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047689533524474</v>
+        <v>1.062782260625434</v>
       </c>
       <c r="J13">
-        <v>1.02457827508263</v>
+        <v>1.10213556972974</v>
       </c>
       <c r="K13">
-        <v>1.030619538112511</v>
+        <v>1.093784541731094</v>
       </c>
       <c r="L13">
-        <v>1.029858638531861</v>
+        <v>1.11051163419518</v>
       </c>
       <c r="M13">
-        <v>1.037063730976226</v>
+        <v>1.111587105303553</v>
       </c>
       <c r="N13">
-        <v>1.026033293754018</v>
+        <v>1.103700728655473</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9972394730805102</v>
+        <v>1.096270965581639</v>
       </c>
       <c r="D14">
-        <v>1.017920170841283</v>
+        <v>1.090657361444898</v>
       </c>
       <c r="E14">
-        <v>1.017486865607758</v>
+        <v>1.107497811956263</v>
       </c>
       <c r="F14">
-        <v>1.024709344012253</v>
+        <v>1.108557885400277</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048732850541307</v>
+        <v>1.062896758711893</v>
       </c>
       <c r="J14">
-        <v>1.0267633647497</v>
+        <v>1.102434121021122</v>
       </c>
       <c r="K14">
-        <v>1.032528407454291</v>
+        <v>1.094036513148404</v>
       </c>
       <c r="L14">
-        <v>1.032102918594273</v>
+        <v>1.110822087332484</v>
       </c>
       <c r="M14">
-        <v>1.039196230858842</v>
+        <v>1.111878767482936</v>
       </c>
       <c r="N14">
-        <v>1.028221486499048</v>
+        <v>1.103999703923934</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9988251828036183</v>
+        <v>1.096490480319008</v>
       </c>
       <c r="D15">
-        <v>1.019193185640765</v>
+        <v>1.090831427759135</v>
       </c>
       <c r="E15">
-        <v>1.018968436420808</v>
+        <v>1.107707693368042</v>
       </c>
       <c r="F15">
-        <v>1.026120123800199</v>
+        <v>1.108756131565604</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049368560889518</v>
+        <v>1.062967205133807</v>
       </c>
       <c r="J15">
-        <v>1.028095532082484</v>
+        <v>1.102617924409445</v>
       </c>
       <c r="K15">
-        <v>1.033692032342205</v>
+        <v>1.094191617223645</v>
       </c>
       <c r="L15">
-        <v>1.033471295555731</v>
+        <v>1.111013227530408</v>
       </c>
       <c r="M15">
-        <v>1.040496421128797</v>
+        <v>1.112058330333763</v>
       </c>
       <c r="N15">
-        <v>1.029555545662247</v>
+        <v>1.10418376833415</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007814615993196</v>
+        <v>1.097766040278757</v>
       </c>
       <c r="D16">
-        <v>1.026411985546576</v>
+        <v>1.091842562383561</v>
       </c>
       <c r="E16">
-        <v>1.027371821805968</v>
+        <v>1.108927320758688</v>
       </c>
       <c r="F16">
-        <v>1.034122240953755</v>
+        <v>1.109908050890358</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052966069704887</v>
+        <v>1.063375721426298</v>
       </c>
       <c r="J16">
-        <v>1.035645774674207</v>
+        <v>1.103685562411366</v>
       </c>
       <c r="K16">
-        <v>1.040284867329303</v>
+        <v>1.095092211555696</v>
       </c>
       <c r="L16">
-        <v>1.041228571694533</v>
+        <v>1.112123625652376</v>
       </c>
       <c r="M16">
-        <v>1.047866625562016</v>
+        <v>1.113101348020519</v>
       </c>
       <c r="N16">
-        <v>1.037116510464476</v>
+        <v>1.105252922504494</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.013256696847949</v>
+        <v>1.098564331710874</v>
       </c>
       <c r="D17">
-        <v>1.030783589235837</v>
+        <v>1.092475073195161</v>
       </c>
       <c r="E17">
-        <v>1.032462610548969</v>
+        <v>1.10969064645526</v>
       </c>
       <c r="F17">
-        <v>1.038970087004385</v>
+        <v>1.110628916205334</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05513826910932</v>
+        <v>1.063630650484327</v>
       </c>
       <c r="J17">
-        <v>1.040214801893374</v>
+        <v>1.104353367833394</v>
       </c>
       <c r="K17">
-        <v>1.044272572720299</v>
+        <v>1.095655231029436</v>
       </c>
       <c r="L17">
-        <v>1.045924426452221</v>
+        <v>1.11281830373361</v>
       </c>
       <c r="M17">
-        <v>1.052327670967308</v>
+        <v>1.113753763105827</v>
       </c>
       <c r="N17">
-        <v>1.041692026226368</v>
+        <v>1.105921676286819</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.016365368791258</v>
+        <v>1.099029310738463</v>
       </c>
       <c r="D18">
-        <v>1.033281167446598</v>
+        <v>1.092843384247926</v>
       </c>
       <c r="E18">
-        <v>1.035371769647727</v>
+        <v>1.110135272820212</v>
       </c>
       <c r="F18">
-        <v>1.041740440424198</v>
+        <v>1.111048779631103</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056376998385605</v>
+        <v>1.063778873466046</v>
       </c>
       <c r="J18">
-        <v>1.042824056967485</v>
+        <v>1.104742212834356</v>
       </c>
       <c r="K18">
-        <v>1.046549131029775</v>
+        <v>1.09598295368471</v>
       </c>
       <c r="L18">
-        <v>1.048606649175248</v>
+        <v>1.113222841414668</v>
       </c>
       <c r="M18">
-        <v>1.054875580772882</v>
+        <v>1.114133650098388</v>
       </c>
       <c r="N18">
-        <v>1.04430498674197</v>
+        <v>1.106311073492284</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.017414677968906</v>
+        <v>1.099187747105467</v>
       </c>
       <c r="D19">
-        <v>1.034124262365949</v>
+        <v>1.092968864067027</v>
       </c>
       <c r="E19">
-        <v>1.036353921973717</v>
+        <v>1.110286776554749</v>
       </c>
       <c r="F19">
-        <v>1.042675732884262</v>
+        <v>1.111191840385675</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05679476280713</v>
+        <v>1.063829333824485</v>
       </c>
       <c r="J19">
-        <v>1.043704666977565</v>
+        <v>1.104874685309112</v>
       </c>
       <c r="K19">
-        <v>1.047317334042087</v>
+        <v>1.096094584498142</v>
       </c>
       <c r="L19">
-        <v>1.049511975692202</v>
+        <v>1.113360667809059</v>
       </c>
       <c r="M19">
-        <v>1.055735539015713</v>
+        <v>1.114263071303256</v>
       </c>
       <c r="N19">
-        <v>1.045186847319272</v>
+        <v>1.106443734093149</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.012679710304</v>
+        <v>1.098478750139755</v>
       </c>
       <c r="D20">
-        <v>1.03032005438202</v>
+        <v>1.092407275263558</v>
       </c>
       <c r="E20">
-        <v>1.031922746511135</v>
+        <v>1.109608811989212</v>
       </c>
       <c r="F20">
-        <v>1.038455983148276</v>
+        <v>1.110551636964534</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.054908182835596</v>
+        <v>1.06360334799973</v>
       </c>
       <c r="J20">
-        <v>1.039730451307216</v>
+        <v>1.10428178860134</v>
       </c>
       <c r="K20">
-        <v>1.043849921068292</v>
+        <v>1.095594894569697</v>
       </c>
       <c r="L20">
-        <v>1.04542657463361</v>
+        <v>1.112743839429008</v>
       </c>
       <c r="M20">
-        <v>1.051854733251152</v>
+        <v>1.11368383314794</v>
       </c>
       <c r="N20">
-        <v>1.041206987806822</v>
+        <v>1.105849995404045</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9964771341184281</v>
+        <v>1.096166012911887</v>
       </c>
       <c r="D21">
-        <v>1.017308204127863</v>
+        <v>1.090574132342888</v>
       </c>
       <c r="E21">
-        <v>1.01677467455964</v>
+        <v>1.107397465900635</v>
       </c>
       <c r="F21">
-        <v>1.024031188000997</v>
+        <v>1.108463100570751</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048427116365947</v>
+        <v>1.062863062655396</v>
       </c>
       <c r="J21">
-        <v>1.026122886900931</v>
+        <v>1.102346235136662</v>
       </c>
       <c r="K21">
-        <v>1.031968922775442</v>
+        <v>1.093962343852122</v>
       </c>
       <c r="L21">
-        <v>1.031445065322954</v>
+        <v>1.110730695883348</v>
       </c>
       <c r="M21">
-        <v>1.038571149761052</v>
+        <v>1.111792909420268</v>
       </c>
       <c r="N21">
-        <v>1.027580099098271</v>
+        <v>1.103911693231437</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9855747131735392</v>
+        <v>1.094705825431505</v>
       </c>
       <c r="D22">
-        <v>1.008559627624972</v>
+        <v>1.089415791425411</v>
       </c>
       <c r="E22">
-        <v>1.006595401278015</v>
+        <v>1.106001423475371</v>
       </c>
       <c r="F22">
-        <v>1.014338866456766</v>
+        <v>1.107144315975303</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044047247716106</v>
+        <v>1.06239327537086</v>
       </c>
       <c r="J22">
-        <v>1.016961368077025</v>
+        <v>1.101123013819363</v>
       </c>
       <c r="K22">
-        <v>1.023963402589877</v>
+        <v>1.092929633352667</v>
       </c>
       <c r="L22">
-        <v>1.022037324551689</v>
+        <v>1.109458852104066</v>
       </c>
       <c r="M22">
-        <v>1.029631520696707</v>
+        <v>1.110597925597439</v>
       </c>
       <c r="N22">
-        <v>1.018405569866793</v>
+        <v>1.102686734799561</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.991429068045289</v>
+        <v>1.095480485024542</v>
       </c>
       <c r="D23">
-        <v>1.013256610672641</v>
+        <v>1.090030405192137</v>
       </c>
       <c r="E23">
-        <v>1.012060044450881</v>
+        <v>1.106742040216759</v>
       </c>
       <c r="F23">
-        <v>1.01954197168965</v>
+        <v>1.107843972307103</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046400823075497</v>
+        <v>1.062642733884047</v>
       </c>
       <c r="J23">
-        <v>1.021881299086626</v>
+        <v>1.1017720691787</v>
       </c>
       <c r="K23">
-        <v>1.028263109540563</v>
+        <v>1.09347769409406</v>
       </c>
       <c r="L23">
-        <v>1.027088948416661</v>
+        <v>1.110133668011982</v>
       </c>
       <c r="M23">
-        <v>1.034431905572953</v>
+        <v>1.111231994625499</v>
       </c>
       <c r="N23">
-        <v>1.023332487742752</v>
+        <v>1.103336711891957</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.012940627153814</v>
+        <v>1.098517422778041</v>
       </c>
       <c r="D24">
-        <v>1.030529666486081</v>
+        <v>1.092437912151099</v>
       </c>
       <c r="E24">
-        <v>1.032166872759078</v>
+        <v>1.109645791341539</v>
       </c>
       <c r="F24">
-        <v>1.038688460582797</v>
+        <v>1.110586557995948</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055012235794907</v>
+        <v>1.063615686277929</v>
       </c>
       <c r="J24">
-        <v>1.039949479817877</v>
+        <v>1.104314134258843</v>
       </c>
       <c r="K24">
-        <v>1.044041050906824</v>
+        <v>1.095622160110085</v>
       </c>
       <c r="L24">
-        <v>1.045651706866731</v>
+        <v>1.112777488670018</v>
       </c>
       <c r="M24">
-        <v>1.052068599747769</v>
+        <v>1.113715433511039</v>
       </c>
       <c r="N24">
-        <v>1.041426327363091</v>
+        <v>1.105882386996092</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.035360948998392</v>
+        <v>1.102016194273051</v>
       </c>
       <c r="D25">
-        <v>1.048546403965031</v>
+        <v>1.095207381786813</v>
       </c>
       <c r="E25">
-        <v>1.053165824556439</v>
+        <v>1.112991657105387</v>
       </c>
       <c r="F25">
-        <v>1.058685239218459</v>
+        <v>1.113745531341639</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063908597777427</v>
+        <v>1.064726235370282</v>
       </c>
       <c r="J25">
-        <v>1.058754188672541</v>
+        <v>1.107237687356702</v>
       </c>
       <c r="K25">
-        <v>1.060435102594423</v>
+        <v>1.098084212990114</v>
       </c>
       <c r="L25">
-        <v>1.064991292048072</v>
+        <v>1.115819843544714</v>
       </c>
       <c r="M25">
-        <v>1.070436065764007</v>
+        <v>1.116571692868012</v>
       </c>
       <c r="N25">
-        <v>1.060257741061259</v>
+        <v>1.108810091874687</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_99/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_99/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.104787407992471</v>
+        <v>1.051662418989283</v>
       </c>
       <c r="D2">
-        <v>1.097397575286285</v>
+        <v>1.06164666331752</v>
       </c>
       <c r="E2">
-        <v>1.115642162878807</v>
+        <v>1.068459110788655</v>
       </c>
       <c r="F2">
-        <v>1.116247020282871</v>
+        <v>1.073246955113448</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065597497592041</v>
+        <v>1.070310436965703</v>
       </c>
       <c r="J2">
-        <v>1.109549191486713</v>
+        <v>1.072400551888403</v>
       </c>
       <c r="K2">
-        <v>1.100027417661076</v>
+        <v>1.072309118079385</v>
       </c>
       <c r="L2">
-        <v>1.11822670241576</v>
+        <v>1.079040497889715</v>
       </c>
       <c r="M2">
-        <v>1.118830085185469</v>
+        <v>1.083772129043553</v>
       </c>
       <c r="N2">
-        <v>1.111124878605696</v>
+        <v>1.073923483678147</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.106788846496812</v>
+        <v>1.062753299325156</v>
       </c>
       <c r="D3">
-        <v>1.098977415667224</v>
+        <v>1.07055601562565</v>
       </c>
       <c r="E3">
-        <v>1.117556641507543</v>
+        <v>1.07887544385121</v>
       </c>
       <c r="F3">
-        <v>1.118053299041216</v>
+        <v>1.083163178596341</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.066221899488423</v>
+        <v>1.074626143875451</v>
       </c>
       <c r="J3">
-        <v>1.111216232618573</v>
+        <v>1.081668068200639</v>
       </c>
       <c r="K3">
-        <v>1.101426860832831</v>
+        <v>1.080359215679431</v>
       </c>
       <c r="L3">
-        <v>1.119963335752586</v>
+        <v>1.088589576926042</v>
       </c>
       <c r="M3">
-        <v>1.120458871351878</v>
+        <v>1.092832060835315</v>
       </c>
       <c r="N3">
-        <v>1.112794287127175</v>
+        <v>1.083204160926545</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.10807913132044</v>
+        <v>1.069629613689616</v>
       </c>
       <c r="D4">
-        <v>1.099994988149107</v>
+        <v>1.076077124137461</v>
       </c>
       <c r="E4">
-        <v>1.118790961459637</v>
+        <v>1.085337959679512</v>
       </c>
       <c r="F4">
-        <v>1.11921759704334</v>
+        <v>1.089314342514351</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066622195055447</v>
+        <v>1.077283049907246</v>
       </c>
       <c r="J4">
-        <v>1.112289834320856</v>
+        <v>1.08740560592093</v>
       </c>
       <c r="K4">
-        <v>1.102327206304959</v>
+        <v>1.085336528802996</v>
       </c>
       <c r="L4">
-        <v>1.121082136000439</v>
+        <v>1.094504994205088</v>
       </c>
       <c r="M4">
-        <v>1.121507857048806</v>
+        <v>1.098442300180763</v>
       </c>
       <c r="N4">
-        <v>1.113869413467019</v>
+        <v>1.088949846608505</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.108620447811198</v>
+        <v>1.072454247403589</v>
       </c>
       <c r="D5">
-        <v>1.100421672574504</v>
+        <v>1.078344297428666</v>
       </c>
       <c r="E5">
-        <v>1.119308821231391</v>
+        <v>1.087993566856739</v>
       </c>
       <c r="F5">
-        <v>1.119706016018488</v>
+        <v>1.091841720438886</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066789594684114</v>
+        <v>1.078369873159253</v>
       </c>
       <c r="J5">
-        <v>1.112739980535885</v>
+        <v>1.089760402980259</v>
       </c>
       <c r="K5">
-        <v>1.102704488330175</v>
+        <v>1.087377729277309</v>
       </c>
       <c r="L5">
-        <v>1.121551324249647</v>
+        <v>1.096933636303691</v>
       </c>
       <c r="M5">
-        <v>1.121947686833039</v>
+        <v>1.100745113251683</v>
       </c>
       <c r="N5">
-        <v>1.114320198941306</v>
+        <v>1.091307987749757</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.108711272320189</v>
+        <v>1.072924788261669</v>
       </c>
       <c r="D6">
-        <v>1.100493250652425</v>
+        <v>1.078721924814489</v>
       </c>
       <c r="E6">
-        <v>1.119395711358725</v>
+        <v>1.088436003616716</v>
       </c>
       <c r="F6">
-        <v>1.119787962659183</v>
+        <v>1.092262775902676</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066817650212779</v>
+        <v>1.078550650598106</v>
       </c>
       <c r="J6">
-        <v>1.11281549255571</v>
+        <v>1.090152553714291</v>
       </c>
       <c r="K6">
-        <v>1.102767764453625</v>
+        <v>1.087717562001604</v>
       </c>
       <c r="L6">
-        <v>1.121630035901407</v>
+        <v>1.09733813367241</v>
       </c>
       <c r="M6">
-        <v>1.122021468540707</v>
+        <v>1.101128621531855</v>
       </c>
       <c r="N6">
-        <v>1.11439581819686</v>
+        <v>1.09170069538281</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.108086368781944</v>
+        <v>1.06966760957509</v>
       </c>
       <c r="D7">
-        <v>1.100000693834803</v>
+        <v>1.076107624511513</v>
       </c>
       <c r="E7">
-        <v>1.118797885215163</v>
+        <v>1.085373678239651</v>
       </c>
       <c r="F7">
-        <v>1.119224127425295</v>
+        <v>1.089348337535683</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066624435320787</v>
+        <v>1.077297687654452</v>
       </c>
       <c r="J7">
-        <v>1.112295853866749</v>
+        <v>1.087437289968509</v>
       </c>
       <c r="K7">
-        <v>1.102332252346834</v>
+        <v>1.085363999696018</v>
       </c>
       <c r="L7">
-        <v>1.121088409826973</v>
+        <v>1.094537668530943</v>
       </c>
       <c r="M7">
-        <v>1.121513738620814</v>
+        <v>1.098473283777186</v>
       </c>
       <c r="N7">
-        <v>1.113875441561358</v>
+        <v>1.088981575651065</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.105464808327935</v>
+        <v>1.055476474310434</v>
       </c>
       <c r="D8">
-        <v>1.097932472752405</v>
+        <v>1.064710989844692</v>
       </c>
       <c r="E8">
-        <v>1.116290110649544</v>
+        <v>1.072040183438344</v>
       </c>
       <c r="F8">
-        <v>1.116858402549194</v>
+        <v>1.076656301990899</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065809295992791</v>
+        <v>1.071798539079552</v>
       </c>
       <c r="J8">
-        <v>1.110113641826887</v>
+        <v>1.075589293282619</v>
       </c>
       <c r="K8">
-        <v>1.100501451572599</v>
+        <v>1.075080348316666</v>
       </c>
       <c r="L8">
-        <v>1.118814637284393</v>
+        <v>1.082325349127133</v>
       </c>
       <c r="M8">
-        <v>1.119381578133509</v>
+        <v>1.086889165812847</v>
       </c>
       <c r="N8">
-        <v>1.111690130530096</v>
+        <v>1.077116753450897</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.100807545318151</v>
+        <v>1.027867295490254</v>
       </c>
       <c r="D9">
-        <v>1.094251191842799</v>
+        <v>1.042523857259054</v>
       </c>
       <c r="E9">
-        <v>1.111835765062054</v>
+        <v>1.046142622485325</v>
       </c>
       <c r="F9">
-        <v>1.112654354184124</v>
+        <v>1.051997355357256</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.064343893375747</v>
+        <v>1.060945684630766</v>
       </c>
       <c r="J9">
-        <v>1.106228384522181</v>
+        <v>1.052472961536416</v>
       </c>
       <c r="K9">
-        <v>1.097234764976508</v>
+        <v>1.054962733212231</v>
       </c>
       <c r="L9">
-        <v>1.114769304839532</v>
+        <v>1.05852893920712</v>
       </c>
       <c r="M9">
-        <v>1.115585606617925</v>
+        <v>1.064299606498069</v>
       </c>
       <c r="N9">
-        <v>1.107799355714372</v>
+        <v>1.053967593862134</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.097675736882937</v>
+        <v>1.007190363806323</v>
       </c>
       <c r="D10">
-        <v>1.091770997874666</v>
+        <v>1.025910589172852</v>
       </c>
       <c r="E10">
-        <v>1.108840974597988</v>
+        <v>1.026788032343509</v>
       </c>
       <c r="F10">
-        <v>1.109826503669876</v>
+        <v>1.033566316531068</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.06334684774296</v>
+        <v>1.052716614959963</v>
       </c>
       <c r="J10">
-        <v>1.103610002076866</v>
+        <v>1.035121576267122</v>
       </c>
       <c r="K10">
-        <v>1.095028492784673</v>
+        <v>1.039827265331721</v>
       </c>
       <c r="L10">
-        <v>1.112045030914976</v>
+        <v>1.040689898053387</v>
       </c>
       <c r="M10">
-        <v>1.113027529523553</v>
+        <v>1.047354861961487</v>
       </c>
       <c r="N10">
-        <v>1.105177254865652</v>
+        <v>1.036591567635525</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.096312875548706</v>
+        <v>0.9975431308311912</v>
       </c>
       <c r="D11">
-        <v>1.090690595640738</v>
+        <v>1.018163939490989</v>
       </c>
       <c r="E11">
-        <v>1.107537882543787</v>
+        <v>1.017770563202558</v>
       </c>
       <c r="F11">
-        <v>1.108595734953088</v>
+        <v>1.024979484995298</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.062910211641236</v>
+        <v>1.048854611473997</v>
       </c>
       <c r="J11">
-        <v>1.102469214527894</v>
+        <v>1.027018476824425</v>
       </c>
       <c r="K11">
-        <v>1.094066128427036</v>
+        <v>1.032751251808332</v>
       </c>
       <c r="L11">
-        <v>1.110858581097167</v>
+        <v>1.032364957590268</v>
       </c>
       <c r="M11">
-        <v>1.11191305130148</v>
+        <v>1.039445214313154</v>
       </c>
       <c r="N11">
-        <v>1.104034847267511</v>
+        <v>1.028476960862181</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.095805600395432</v>
+        <v>0.9938381793641264</v>
       </c>
       <c r="D12">
-        <v>1.090288290796894</v>
+        <v>1.015190007331652</v>
       </c>
       <c r="E12">
-        <v>1.107052876681035</v>
+        <v>1.014309731239508</v>
       </c>
       <c r="F12">
-        <v>1.108137600403055</v>
+        <v>1.021684073560013</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.062747276362938</v>
+        <v>1.047368218811656</v>
       </c>
       <c r="J12">
-        <v>1.102044395246649</v>
+        <v>1.023905627411371</v>
       </c>
       <c r="K12">
-        <v>1.093707583335472</v>
+        <v>1.03003186440836</v>
       </c>
       <c r="L12">
-        <v>1.110416828774142</v>
+        <v>1.029167820170412</v>
       </c>
       <c r="M12">
-        <v>1.111498034986071</v>
+        <v>1.036407307367069</v>
       </c>
       <c r="N12">
-        <v>1.103609424694158</v>
+        <v>1.025359690845912</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.095914460554615</v>
+        <v>0.9946387286868467</v>
       </c>
       <c r="D13">
-        <v>1.090374631990936</v>
+        <v>1.015832543337402</v>
       </c>
       <c r="E13">
-        <v>1.107156956873377</v>
+        <v>1.015057424166601</v>
       </c>
       <c r="F13">
-        <v>1.108235916255462</v>
+        <v>1.022396020068614</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.062782260625434</v>
+        <v>1.047689533524475</v>
       </c>
       <c r="J13">
-        <v>1.10213556972974</v>
+        <v>1.024578275082631</v>
       </c>
       <c r="K13">
-        <v>1.093784541731094</v>
+        <v>1.030619538112512</v>
       </c>
       <c r="L13">
-        <v>1.11051163419518</v>
+        <v>1.029858638531863</v>
       </c>
       <c r="M13">
-        <v>1.111587105303553</v>
+        <v>1.037063730976227</v>
       </c>
       <c r="N13">
-        <v>1.103700728655473</v>
+        <v>1.026033293754019</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.096270965581639</v>
+        <v>0.9972394730805101</v>
       </c>
       <c r="D14">
-        <v>1.090657361444898</v>
+        <v>1.017920170841283</v>
       </c>
       <c r="E14">
-        <v>1.107497811956263</v>
+        <v>1.017486865607758</v>
       </c>
       <c r="F14">
-        <v>1.108557885400277</v>
+        <v>1.024709344012253</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.062896758711893</v>
+        <v>1.048732850541308</v>
       </c>
       <c r="J14">
-        <v>1.102434121021122</v>
+        <v>1.0267633647497</v>
       </c>
       <c r="K14">
-        <v>1.094036513148404</v>
+        <v>1.032528407454291</v>
       </c>
       <c r="L14">
-        <v>1.110822087332484</v>
+        <v>1.032102918594273</v>
       </c>
       <c r="M14">
-        <v>1.111878767482936</v>
+        <v>1.039196230858842</v>
       </c>
       <c r="N14">
-        <v>1.103999703923934</v>
+        <v>1.028221486499049</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.096490480319008</v>
+        <v>0.9988251828036233</v>
       </c>
       <c r="D15">
-        <v>1.090831427759135</v>
+        <v>1.019193185640769</v>
       </c>
       <c r="E15">
-        <v>1.107707693368042</v>
+        <v>1.018968436420813</v>
       </c>
       <c r="F15">
-        <v>1.108756131565604</v>
+        <v>1.026120123800203</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.062967205133807</v>
+        <v>1.04936856088952</v>
       </c>
       <c r="J15">
-        <v>1.102617924409445</v>
+        <v>1.028095532082489</v>
       </c>
       <c r="K15">
-        <v>1.094191617223645</v>
+        <v>1.03369203234221</v>
       </c>
       <c r="L15">
-        <v>1.111013227530408</v>
+        <v>1.033471295555736</v>
       </c>
       <c r="M15">
-        <v>1.112058330333763</v>
+        <v>1.040496421128801</v>
       </c>
       <c r="N15">
-        <v>1.10418376833415</v>
+        <v>1.029555545662251</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.097766040278757</v>
+        <v>1.007814615993197</v>
       </c>
       <c r="D16">
-        <v>1.091842562383561</v>
+        <v>1.026411985546577</v>
       </c>
       <c r="E16">
-        <v>1.108927320758688</v>
+        <v>1.027371821805968</v>
       </c>
       <c r="F16">
-        <v>1.109908050890358</v>
+        <v>1.034122240953754</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.063375721426298</v>
+        <v>1.052966069704887</v>
       </c>
       <c r="J16">
-        <v>1.103685562411366</v>
+        <v>1.035645774674208</v>
       </c>
       <c r="K16">
-        <v>1.095092211555696</v>
+        <v>1.040284867329303</v>
       </c>
       <c r="L16">
-        <v>1.112123625652376</v>
+        <v>1.041228571694533</v>
       </c>
       <c r="M16">
-        <v>1.113101348020519</v>
+        <v>1.047866625562016</v>
       </c>
       <c r="N16">
-        <v>1.105252922504494</v>
+        <v>1.037116510464476</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.098564331710874</v>
+        <v>1.013256696847946</v>
       </c>
       <c r="D17">
-        <v>1.092475073195161</v>
+        <v>1.030783589235835</v>
       </c>
       <c r="E17">
-        <v>1.10969064645526</v>
+        <v>1.032462610548967</v>
       </c>
       <c r="F17">
-        <v>1.110628916205334</v>
+        <v>1.038970087004383</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.063630650484327</v>
+        <v>1.055138269109319</v>
       </c>
       <c r="J17">
-        <v>1.104353367833394</v>
+        <v>1.040214801893372</v>
       </c>
       <c r="K17">
-        <v>1.095655231029436</v>
+        <v>1.044272572720297</v>
       </c>
       <c r="L17">
-        <v>1.11281830373361</v>
+        <v>1.045924426452218</v>
       </c>
       <c r="M17">
-        <v>1.113753763105827</v>
+        <v>1.052327670967305</v>
       </c>
       <c r="N17">
-        <v>1.105921676286819</v>
+        <v>1.041692026226366</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.099029310738463</v>
+        <v>1.016365368791259</v>
       </c>
       <c r="D18">
-        <v>1.092843384247926</v>
+        <v>1.033281167446599</v>
       </c>
       <c r="E18">
-        <v>1.110135272820212</v>
+        <v>1.035371769647728</v>
       </c>
       <c r="F18">
-        <v>1.111048779631103</v>
+        <v>1.041740440424199</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.063778873466046</v>
+        <v>1.056376998385606</v>
       </c>
       <c r="J18">
-        <v>1.104742212834356</v>
+        <v>1.042824056967486</v>
       </c>
       <c r="K18">
-        <v>1.09598295368471</v>
+        <v>1.046549131029775</v>
       </c>
       <c r="L18">
-        <v>1.113222841414668</v>
+        <v>1.048606649175249</v>
       </c>
       <c r="M18">
-        <v>1.114133650098388</v>
+        <v>1.054875580772883</v>
       </c>
       <c r="N18">
-        <v>1.106311073492284</v>
+        <v>1.044304986741972</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.099187747105467</v>
+        <v>1.017414677968905</v>
       </c>
       <c r="D19">
-        <v>1.092968864067027</v>
+        <v>1.034124262365949</v>
       </c>
       <c r="E19">
-        <v>1.110286776554749</v>
+        <v>1.036353921973716</v>
       </c>
       <c r="F19">
-        <v>1.111191840385675</v>
+        <v>1.042675732884262</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.063829333824485</v>
+        <v>1.05679476280713</v>
       </c>
       <c r="J19">
-        <v>1.104874685309112</v>
+        <v>1.043704666977565</v>
       </c>
       <c r="K19">
-        <v>1.096094584498142</v>
+        <v>1.047317334042087</v>
       </c>
       <c r="L19">
-        <v>1.113360667809059</v>
+        <v>1.049511975692201</v>
       </c>
       <c r="M19">
-        <v>1.114263071303256</v>
+        <v>1.055735539015713</v>
       </c>
       <c r="N19">
-        <v>1.106443734093149</v>
+        <v>1.045186847319271</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.098478750139755</v>
+        <v>1.012679710304001</v>
       </c>
       <c r="D20">
-        <v>1.092407275263558</v>
+        <v>1.03032005438202</v>
       </c>
       <c r="E20">
-        <v>1.109608811989212</v>
+        <v>1.031922746511136</v>
       </c>
       <c r="F20">
-        <v>1.110551636964534</v>
+        <v>1.038455983148277</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.06360334799973</v>
+        <v>1.054908182835597</v>
       </c>
       <c r="J20">
-        <v>1.10428178860134</v>
+        <v>1.039730451307217</v>
       </c>
       <c r="K20">
-        <v>1.095594894569697</v>
+        <v>1.043849921068293</v>
       </c>
       <c r="L20">
-        <v>1.112743839429008</v>
+        <v>1.04542657463361</v>
       </c>
       <c r="M20">
-        <v>1.11368383314794</v>
+        <v>1.051854733251153</v>
       </c>
       <c r="N20">
-        <v>1.105849995404045</v>
+        <v>1.041206987806823</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.096166012911887</v>
+        <v>0.9964771341184256</v>
       </c>
       <c r="D21">
-        <v>1.090574132342888</v>
+        <v>1.017308204127861</v>
       </c>
       <c r="E21">
-        <v>1.107397465900635</v>
+        <v>1.016774674559637</v>
       </c>
       <c r="F21">
-        <v>1.108463100570751</v>
+        <v>1.024031188000995</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.062863062655396</v>
+        <v>1.048427116365945</v>
       </c>
       <c r="J21">
-        <v>1.102346235136662</v>
+        <v>1.026122886900929</v>
       </c>
       <c r="K21">
-        <v>1.093962343852122</v>
+        <v>1.031968922775441</v>
       </c>
       <c r="L21">
-        <v>1.110730695883348</v>
+        <v>1.031445065322952</v>
       </c>
       <c r="M21">
-        <v>1.111792909420268</v>
+        <v>1.03857114976105</v>
       </c>
       <c r="N21">
-        <v>1.103911693231437</v>
+        <v>1.027580099098268</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.094705825431505</v>
+        <v>0.9855747131735404</v>
       </c>
       <c r="D22">
-        <v>1.089415791425411</v>
+        <v>1.008559627624973</v>
       </c>
       <c r="E22">
-        <v>1.106001423475371</v>
+        <v>1.006595401278015</v>
       </c>
       <c r="F22">
-        <v>1.107144315975303</v>
+        <v>1.014338866456767</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.06239327537086</v>
+        <v>1.044047247716107</v>
       </c>
       <c r="J22">
-        <v>1.101123013819363</v>
+        <v>1.016961368077026</v>
       </c>
       <c r="K22">
-        <v>1.092929633352667</v>
+        <v>1.023963402589878</v>
       </c>
       <c r="L22">
-        <v>1.109458852104066</v>
+        <v>1.02203732455169</v>
       </c>
       <c r="M22">
-        <v>1.110597925597439</v>
+        <v>1.029631520696708</v>
       </c>
       <c r="N22">
-        <v>1.102686734799561</v>
+        <v>1.018405569866794</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.095480485024542</v>
+        <v>0.99142906804529</v>
       </c>
       <c r="D23">
-        <v>1.090030405192137</v>
+        <v>1.013256610672642</v>
       </c>
       <c r="E23">
-        <v>1.106742040216759</v>
+        <v>1.012060044450882</v>
       </c>
       <c r="F23">
-        <v>1.107843972307103</v>
+        <v>1.019541971689651</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.062642733884047</v>
+        <v>1.046400823075498</v>
       </c>
       <c r="J23">
-        <v>1.1017720691787</v>
+        <v>1.021881299086627</v>
       </c>
       <c r="K23">
-        <v>1.09347769409406</v>
+        <v>1.028263109540564</v>
       </c>
       <c r="L23">
-        <v>1.110133668011982</v>
+        <v>1.027088948416662</v>
       </c>
       <c r="M23">
-        <v>1.111231994625499</v>
+        <v>1.034431905572953</v>
       </c>
       <c r="N23">
-        <v>1.103336711891957</v>
+        <v>1.023332487742753</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.098517422778041</v>
+        <v>1.012940627153814</v>
       </c>
       <c r="D24">
-        <v>1.092437912151099</v>
+        <v>1.030529666486081</v>
       </c>
       <c r="E24">
-        <v>1.109645791341539</v>
+        <v>1.032166872759079</v>
       </c>
       <c r="F24">
-        <v>1.110586557995948</v>
+        <v>1.038688460582797</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.063615686277929</v>
+        <v>1.055012235794907</v>
       </c>
       <c r="J24">
-        <v>1.104314134258843</v>
+        <v>1.039949479817877</v>
       </c>
       <c r="K24">
-        <v>1.095622160110085</v>
+        <v>1.044041050906825</v>
       </c>
       <c r="L24">
-        <v>1.112777488670018</v>
+        <v>1.045651706866731</v>
       </c>
       <c r="M24">
-        <v>1.113715433511039</v>
+        <v>1.052068599747769</v>
       </c>
       <c r="N24">
-        <v>1.105882386996092</v>
+        <v>1.041426327363091</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.102016194273051</v>
+        <v>1.03536094899839</v>
       </c>
       <c r="D25">
-        <v>1.095207381786813</v>
+        <v>1.04854640396503</v>
       </c>
       <c r="E25">
-        <v>1.112991657105387</v>
+        <v>1.053165824556437</v>
       </c>
       <c r="F25">
-        <v>1.113745531341639</v>
+        <v>1.058685239218457</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.064726235370282</v>
+        <v>1.063908597777427</v>
       </c>
       <c r="J25">
-        <v>1.107237687356702</v>
+        <v>1.05875418867254</v>
       </c>
       <c r="K25">
-        <v>1.098084212990114</v>
+        <v>1.060435102594422</v>
       </c>
       <c r="L25">
-        <v>1.115819843544714</v>
+        <v>1.06499129204807</v>
       </c>
       <c r="M25">
-        <v>1.116571692868012</v>
+        <v>1.070436065764005</v>
       </c>
       <c r="N25">
-        <v>1.108810091874687</v>
+        <v>1.060257741061257</v>
       </c>
     </row>
   </sheetData>
